--- a/Output data/1_site_factors_2009-2023_wElevation.xlsx
+++ b/Output data/1_site_factors_2009-2023_wElevation.xlsx
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>89.41102600097656</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>26.37376022338867</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>55.0409049987793</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>51.23574829101562</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>58.19431304931641</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85.26619720458984</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>107.6720962524414</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>102.4600067138672</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>54.72502899169922</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>47.94723129272461</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>49.42354965209961</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>60.84935760498047</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>79.98499298095703</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>125.7254791259766</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>106.3363342285156</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>122.9985733032227</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>42.66031265258789</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>99.55495452880859</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>51.61259078979492</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>85.27705383300781</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>63.50336837768555</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>63.79646682739258</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>110.7165679931641</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>105.1058654785156</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>70.44931793212891</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>9.256616592407227</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>122.1123199462891</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>54.69187927246094</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>123.0079803466797</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>38.17916870117188</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>65.91378021240234</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>103.8424911499023</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>71.58573913574219</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>92.28909301757813</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>92.71119689941406</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>62.8050651550293</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38">
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>71.14366149902344</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>97.87580108642578</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>95.24014282226563</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>36.2374153137207</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>45.95718002319336</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>67.75668334960938</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>74.64749908447266</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>69.80421447753906</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -2655,9 +2655,6 @@
       <c r="L46" t="b">
         <v>0</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2704,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>114.7572326660156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48">
@@ -2752,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>117.9761428833008</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -2805,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>110.990364074707</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
@@ -2853,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>121.9818954467773</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -2901,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>96.53362274169922</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -2949,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>53.52648162841797</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
@@ -2997,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>120.1710357666016</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54">
@@ -3045,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>57.51792526245117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
@@ -3093,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>99.15425109863281</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
@@ -3141,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>77.21116638183594</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
@@ -3189,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>103.0045318603516</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
@@ -3242,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>-0.0900016576051712</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="59">
@@ -3290,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>87.62557983398438</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
@@ -3338,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="M60">
-        <v>101.8835830688477</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
@@ -3391,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>81.44522094726563</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -3439,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>45.23730087280273</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
@@ -3487,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>33.05591583251953</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -3535,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>50.44756317138672</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65">
@@ -3588,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>152.275634765625</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66">
@@ -3636,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>116.42529296875</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67">
@@ -3689,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>105.0516815185547</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68">
@@ -3737,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>85.72608947753906</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69">
@@ -3785,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>86.77767944335938</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
@@ -3833,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>86.03888702392578</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
@@ -3881,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="M71">
-        <v>103.2354736328125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72">
@@ -3934,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>58.18258666992188</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
@@ -3982,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>55.46643447875977</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
@@ -4030,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>44.46958923339844</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
@@ -4078,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>46.50678634643555</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
@@ -4126,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>82.76015472412109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
@@ -4174,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>98.94847106933594</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78">
@@ -4222,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>61.47880935668945</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
@@ -4270,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>64.02847290039063</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80">
@@ -4318,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>40.3002815246582</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81">
@@ -4366,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>157.4789581298828</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82">
@@ -4414,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>93.49660491943359</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
@@ -4462,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>138.2523040771484</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
@@ -4515,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>69.87045288085938</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85">
@@ -4563,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>100.7827453613281</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86">
@@ -4611,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="M86">
-        <v>145.2851257324219</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
@@ -4659,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>142.7237854003906</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
@@ -4707,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>62.89806747436523</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89">
@@ -4755,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>92.91851806640625</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90">
@@ -4808,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>121.588508605957</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
@@ -4856,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>36.8153190612793</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
@@ -4909,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.04758821427822113</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -4962,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>13.2890567779541</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -5015,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>2.092439413070679</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -5063,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>48.61439895629883</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96">
@@ -5111,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>8.247397422790527</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -5159,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>21.26307106018066</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -5207,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>66.79615783691406</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99">
@@ -5255,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>78.01850128173828</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
@@ -5303,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>4.647253513336182</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -5351,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>18.91104888916016</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
@@ -5399,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>115.7502288818359</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103">
@@ -5447,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>99.55677032470703</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104">
@@ -5495,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>-0.01177791878581047</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
@@ -5543,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>22.92139625549316</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
@@ -5591,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>80.76103973388672</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
@@ -5639,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>89.88463592529297</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108">
@@ -5687,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>31.71428108215332</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -5735,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>59.48847198486328</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110">
@@ -5783,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111">
@@ -5831,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>30.96224403381348</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
@@ -5879,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>41.44841766357422</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113">
@@ -5932,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>6.845693588256836</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -5980,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>13.62296867370605</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
@@ -6028,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>37.94632339477539</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116">
@@ -6076,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>64.25894927978516</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117">
@@ -6124,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>93.61132049560547</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118">
@@ -6172,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>66.526611328125</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119">
@@ -6220,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>81.07899475097656</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120">
@@ -6268,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121">
@@ -6316,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>81.64974975585938</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122">
@@ -6369,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>52.94902801513672</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123">
@@ -6417,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>38.39713668823242</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124">
@@ -6465,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="M124">
-        <v>155.1302795410156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
@@ -6513,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="M125">
-        <v>130.7047882080078</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126">
@@ -6561,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>82.85418701171875</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127">
@@ -6609,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>146.5736236572266</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128">
@@ -6662,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>123.4137191772461</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129">
@@ -6710,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>113.2031784057617</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130">
@@ -6758,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>129.6661682128906</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131">
@@ -6806,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>42.54167175292969</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132">
@@ -6854,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>65.89569091796875</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133">
@@ -6902,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>155.8956146240234</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134">
@@ -6950,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>108.1305313110352</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135">
@@ -6998,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>115.131233215332</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136">
@@ -7046,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>187.5203552246094</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137">
@@ -7094,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>131.7016296386719</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
@@ -7142,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>117.9975128173828</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139">
@@ -7190,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>99.91852569580078</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140">
@@ -7238,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>82.37321472167969</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141">
@@ -7286,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>99.00359344482422</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142">
@@ -7334,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>153.1476745605469</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143">
@@ -7387,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>71.69615173339844</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144">
@@ -7435,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>26.58247756958008</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145">
@@ -7483,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>45.40773010253906</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146">
@@ -7531,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>157.6033782958984</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147">
@@ -7579,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>34.11481475830078</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148">
@@ -7632,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>66.30590057373047</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149">
@@ -7680,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>57.95205688476562</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150">
@@ -7728,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>99.26432037353516</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151">
@@ -7776,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>61.63776397705078</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152">
@@ -7824,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>50.24823760986328</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153">
@@ -7872,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>82.84365844726563</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154">
@@ -7920,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>72.92135620117188</v>
+        <v>72</v>
       </c>
     </row>
     <row r="155">
@@ -7968,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>73.06790924072266</v>
+        <v>74</v>
       </c>
     </row>
     <row r="156">
@@ -8021,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>32.69902038574219</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157">
@@ -8069,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>92.75719451904297</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158">
@@ -8117,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>79.44528961181641</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159">
@@ -8165,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>50.32312774658203</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160">
@@ -8213,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>146.3533630371094</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161">
@@ -8261,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>129.0102233886719</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162">
@@ -8309,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>50.76557922363281</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163">
@@ -8357,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>55.46833801269531</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164">
@@ -8405,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>50.24665451049805</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165">
@@ -8453,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>52.95381546020508</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166">
@@ -8501,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>92.55997467041016</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167">
@@ -8549,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>14.21204662322998</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
@@ -8597,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>129.9256439208984</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169">
@@ -8645,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>107.1628646850586</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170">
@@ -8693,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>44.5178337097168</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171">
@@ -8741,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>61.85619735717773</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172">
@@ -8794,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>57.74647903442383</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173">
@@ -8842,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>45.92823028564453</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174">
@@ -8895,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>69.94060516357422</v>
+        <v>69</v>
       </c>
     </row>
     <row r="175">
@@ -8943,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>44.51105499267578</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176">
@@ -8991,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>45.72465133666992</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177">
@@ -9039,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>24.57859230041504</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178">
@@ -9087,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>80.28520202636719</v>
+        <v>80</v>
       </c>
     </row>
     <row r="179">
@@ -9135,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>49.49101257324219</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180">
@@ -9183,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>24.89484786987305</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181">
@@ -9231,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>37.76811599731445</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182">
@@ -9279,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>69.80426788330078</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183">
@@ -9327,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>137.4892272949219</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184">
@@ -9375,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>84.64327239990234</v>
+        <v>84</v>
       </c>
     </row>
     <row r="185">
@@ -9423,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>86.74037170410156</v>
+        <v>83</v>
       </c>
     </row>
     <row r="186">
@@ -9471,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>44.1456184387207</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187">
@@ -9519,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>103.9387664794922</v>
+        <v>98</v>
       </c>
     </row>
     <row r="188">
@@ -9567,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>36.45143127441406</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189">
@@ -9615,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>120.0373687744141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="190">
@@ -9663,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>43.06204986572266</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191">
@@ -9711,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>31.56679916381836</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192">
@@ -9759,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>48.47126007080078</v>
+        <v>47</v>
       </c>
     </row>
     <row r="193">
@@ -9807,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>138.7143402099609</v>
+        <v>135</v>
       </c>
     </row>
     <row r="194">
@@ -9855,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>94.43199920654297</v>
+        <v>93</v>
       </c>
     </row>
     <row r="195">
@@ -9908,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>72.71654510498047</v>
+        <v>72</v>
       </c>
     </row>
     <row r="196">
@@ -9956,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>76.17075347900391</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197">
@@ -10009,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>56.74587249755859</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198">
@@ -10057,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>102.7500152587891</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199">
@@ -10105,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>53.02584838867188</v>
+        <v>52</v>
       </c>
     </row>
     <row r="200">
@@ -10153,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>59.72634887695312</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201">
@@ -10201,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>45.39828491210938</v>
+        <v>46</v>
       </c>
     </row>
     <row r="202">
@@ -10249,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>115.2352600097656</v>
+        <v>114</v>
       </c>
     </row>
     <row r="203">
@@ -10297,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>116.7861557006836</v>
+        <v>116</v>
       </c>
     </row>
     <row r="204">
@@ -10350,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>104.5706405639648</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205">
@@ -10398,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>56.12649536132812</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206">
@@ -10446,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>50.63164901733398</v>
+        <v>51</v>
       </c>
     </row>
     <row r="207">
@@ -10499,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>41.60704803466797</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208">
@@ -10547,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>53.32422256469727</v>
+        <v>52</v>
       </c>
     </row>
     <row r="209">
@@ -10595,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>37.3838996887207</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210">
@@ -10643,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>31.23553657531738</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211">
@@ -10691,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>84.92926025390625</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212">
@@ -10739,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>104.6103057861328</v>
+        <v>104</v>
       </c>
     </row>
     <row r="213">
@@ -10792,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>78.34439086914063</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214">
@@ -10845,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>66.66055297851563</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215">
@@ -10898,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>34.64756393432617</v>
+        <v>33</v>
       </c>
     </row>
     <row r="216">
@@ -10946,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>31.49463081359863</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217">
@@ -10999,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>111.5545806884766</v>
+        <v>110</v>
       </c>
     </row>
     <row r="218">
@@ -11047,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>71.85597229003906</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219">
@@ -11095,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>74.0509033203125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220">
@@ -11143,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>63.33614730834961</v>
+        <v>63</v>
       </c>
     </row>
     <row r="221">
@@ -11191,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>93.84741973876953</v>
+        <v>93</v>
       </c>
     </row>
     <row r="222">
@@ -11244,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>67.021728515625</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223">
@@ -11297,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>66.27812194824219</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224">
@@ -11345,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>44.19981384277344</v>
+        <v>43</v>
       </c>
     </row>
     <row r="225">
@@ -11393,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>36.95944976806641</v>
+        <v>36</v>
       </c>
     </row>
     <row r="226">
@@ -11441,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>80.16290283203125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="227">
@@ -11494,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>30.58935546875</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228">
@@ -11542,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>89.27142333984375</v>
+        <v>88</v>
       </c>
     </row>
     <row r="229">
@@ -11590,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>115.1547012329102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="230">
@@ -11643,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>56.83992385864258</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231">
@@ -11691,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>79.04701232910156</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232">
@@ -11739,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>105.2132720947266</v>
+        <v>101</v>
       </c>
     </row>
     <row r="233">
@@ -11792,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>92.49674224853516</v>
+        <v>91</v>
       </c>
     </row>
     <row r="234">
@@ -11840,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>81.46231079101563</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235">
@@ -11888,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>49.24413299560547</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236">
@@ -11936,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>84.26779174804688</v>
+        <v>84</v>
       </c>
     </row>
     <row r="237">
@@ -11984,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>92.5172119140625</v>
+        <v>91</v>
       </c>
     </row>
     <row r="238">
@@ -12032,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>80.73217010498047</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239">
@@ -12080,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>97.97565460205078</v>
+        <v>97</v>
       </c>
     </row>
     <row r="240">
@@ -12128,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>87.88278961181641</v>
+        <v>86</v>
       </c>
     </row>
     <row r="241">
@@ -12176,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>79.44947814941406</v>
+        <v>79</v>
       </c>
     </row>
     <row r="242">
@@ -12224,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>37.65132904052734</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243">
@@ -12272,7 +12269,7 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>31.65248107910156</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244">
@@ -12325,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>35.77307510375977</v>
+        <v>34</v>
       </c>
     </row>
     <row r="245">
@@ -12373,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>42.40998840332031</v>
+        <v>41</v>
       </c>
     </row>
     <row r="246">
@@ -12421,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>28.40321159362793</v>
+        <v>28</v>
       </c>
     </row>
     <row r="247">
@@ -12469,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>39.82929229736328</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248">
@@ -12522,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>36.54269027709961</v>
+        <v>36</v>
       </c>
     </row>
     <row r="249">
@@ -12570,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>42.6077880859375</v>
+        <v>41</v>
       </c>
     </row>
     <row r="250">
@@ -12618,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>42.55160140991211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="251">
@@ -12666,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252">
@@ -12714,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>72.12969970703125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="253">
@@ -12767,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>129.6028289794922</v>
+        <v>127</v>
       </c>
     </row>
     <row r="254">
@@ -12815,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <v>126.0967636108398</v>
+        <v>121</v>
       </c>
     </row>
     <row r="255">
@@ -12863,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>57.11574935913086</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256">
@@ -12911,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>30.18139457702637</v>
+        <v>29</v>
       </c>
     </row>
     <row r="257">
@@ -12959,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>90.05063629150391</v>
+        <v>88</v>
       </c>
     </row>
     <row r="258">
@@ -13007,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="M258">
-        <v>56.66765213012695</v>
+        <v>54</v>
       </c>
     </row>
     <row r="259">
@@ -13055,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>51.31796264648438</v>
+        <v>51</v>
       </c>
     </row>
     <row r="260">
@@ -13103,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>41.02123260498047</v>
+        <v>40</v>
       </c>
     </row>
     <row r="261">
@@ -13151,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>31.2966423034668</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262">
@@ -13199,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>145.1823425292969</v>
+        <v>144</v>
       </c>
     </row>
     <row r="263">
@@ -13247,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>53.56148147583008</v>
+        <v>53</v>
       </c>
     </row>
     <row r="264">
@@ -13295,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>34.6499137878418</v>
+        <v>34</v>
       </c>
     </row>
     <row r="265">
@@ -13343,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="M265">
-        <v>10.08109855651855</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -13391,7 +13388,7 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>152.2510528564453</v>
+        <v>152</v>
       </c>
     </row>
     <row r="267">
@@ -13439,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="M267">
-        <v>72.72029113769531</v>
+        <v>72</v>
       </c>
     </row>
     <row r="268">
@@ -13487,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="M268">
-        <v>123.63818359375</v>
+        <v>123</v>
       </c>
     </row>
     <row r="269">
@@ -13535,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>100.2931823730469</v>
+        <v>99</v>
       </c>
     </row>
     <row r="270">
@@ -13583,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>116.2824478149414</v>
+        <v>114</v>
       </c>
     </row>
     <row r="271">
@@ -13631,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>107.0326385498047</v>
+        <v>103</v>
       </c>
     </row>
     <row r="272">
@@ -13684,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>45.65967178344727</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273">
@@ -13732,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>41.24797058105469</v>
+        <v>39</v>
       </c>
     </row>
     <row r="274">
@@ -13780,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>83.13943481445313</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275">
@@ -13828,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>63.13395309448242</v>
+        <v>60</v>
       </c>
     </row>
     <row r="276">
@@ -13876,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>83.78313446044922</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277">
@@ -13924,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>72.45843505859375</v>
+        <v>72</v>
       </c>
     </row>
     <row r="278">
@@ -13972,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>102.4511108398438</v>
+        <v>100</v>
       </c>
     </row>
     <row r="279">
@@ -14020,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>107.4550399780273</v>
+        <v>104</v>
       </c>
     </row>
     <row r="280">
@@ -14068,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>10.99981689453125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281">
@@ -14116,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>70.75984191894531</v>
+        <v>70</v>
       </c>
     </row>
     <row r="282">
@@ -14164,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="M282">
-        <v>70.69283294677734</v>
+        <v>69</v>
       </c>
     </row>
     <row r="283">
@@ -14212,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>34.20860290527344</v>
+        <v>33</v>
       </c>
     </row>
     <row r="284">
@@ -14260,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>106.9831085205078</v>
+        <v>102</v>
       </c>
     </row>
     <row r="285">
@@ -14313,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="M285">
-        <v>75.21249389648438</v>
+        <v>72</v>
       </c>
     </row>
     <row r="286">
@@ -14361,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>49.89189529418945</v>
+        <v>46</v>
       </c>
     </row>
     <row r="287">
@@ -14409,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>47.24259948730469</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288">
@@ -14457,7 +14454,7 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>66.14868927001953</v>
+        <v>57</v>
       </c>
     </row>
     <row r="289">
@@ -14505,7 +14502,7 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>169.2329254150391</v>
+        <v>165</v>
       </c>
     </row>
     <row r="290">
@@ -14553,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>122.6545257568359</v>
+        <v>120</v>
       </c>
     </row>
     <row r="291">
@@ -14601,7 +14598,7 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>118.3625183105469</v>
+        <v>118</v>
       </c>
     </row>
     <row r="292">
@@ -14649,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>109.1694564819336</v>
+        <v>108</v>
       </c>
     </row>
     <row r="293">
@@ -14697,7 +14694,7 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>107.1648406982422</v>
+        <v>110</v>
       </c>
     </row>
     <row r="294">
@@ -14745,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>71.82096099853516</v>
+        <v>73</v>
       </c>
     </row>
     <row r="295">
@@ -14793,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>85.13405609130859</v>
+        <v>86</v>
       </c>
     </row>
     <row r="296">
@@ -14846,7 +14843,7 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>89.87210845947266</v>
+        <v>90</v>
       </c>
     </row>
     <row r="297">
@@ -14894,7 +14891,7 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>70.29988098144531</v>
+        <v>67</v>
       </c>
     </row>
     <row r="298">
@@ -14942,7 +14939,7 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>72.88040161132813</v>
+        <v>76</v>
       </c>
     </row>
     <row r="299">
@@ -14990,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>115.4963989257812</v>
+        <v>114</v>
       </c>
     </row>
     <row r="300">
@@ -15038,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>104.476203918457</v>
+        <v>107</v>
       </c>
     </row>
     <row r="301">
@@ -15086,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>88.93644714355469</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302">
@@ -15134,7 +15131,7 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>139.2488250732422</v>
+        <v>139</v>
       </c>
     </row>
     <row r="303">
@@ -15182,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>64.08515167236328</v>
+        <v>63</v>
       </c>
     </row>
     <row r="304">
@@ -15230,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>44.81266403198242</v>
+        <v>42</v>
       </c>
     </row>
     <row r="305">
@@ -15278,7 +15275,7 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>63.02764511108398</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306">
@@ -15326,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>32.44835662841797</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307">
@@ -15374,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>43.67428207397461</v>
+        <v>42</v>
       </c>
     </row>
     <row r="308">
@@ -15422,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>69.66336822509766</v>
+        <v>68</v>
       </c>
     </row>
     <row r="309">
@@ -15470,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>67.36979675292969</v>
+        <v>67</v>
       </c>
     </row>
     <row r="310">
@@ -15523,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>65.92684173583984</v>
+        <v>65</v>
       </c>
     </row>
     <row r="311">
@@ -15571,7 +15568,7 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>34.16192245483398</v>
+        <v>34</v>
       </c>
     </row>
     <row r="312">
@@ -15619,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>13.23652172088623</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313">
@@ -15667,7 +15664,7 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>119.0392303466797</v>
+        <v>118</v>
       </c>
     </row>
     <row r="314">
@@ -15715,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>-0.5790950655937195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -15763,7 +15760,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>14.78313446044922</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316">
@@ -15811,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>127.8874893188477</v>
+        <v>127</v>
       </c>
     </row>
     <row r="317">
@@ -15859,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>124.1815643310547</v>
+        <v>124</v>
       </c>
     </row>
     <row r="318">
@@ -15907,7 +15904,7 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>147.2400360107422</v>
+        <v>142</v>
       </c>
     </row>
     <row r="319">
@@ -15955,7 +15952,7 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="320">
@@ -16003,7 +16000,7 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>172.5643615722656</v>
+        <v>174</v>
       </c>
     </row>
     <row r="321">
@@ -16051,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>181.1299133300781</v>
+        <v>179</v>
       </c>
     </row>
     <row r="322">
@@ -16099,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="M322">
-        <v>120.88134765625</v>
+        <v>119</v>
       </c>
     </row>
     <row r="323">
@@ -16147,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <v>58.662841796875</v>
+        <v>58</v>
       </c>
     </row>
     <row r="324">
@@ -16195,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>134.1293487548828</v>
+        <v>133</v>
       </c>
     </row>
     <row r="325">
@@ -16243,7 +16240,7 @@
         <v>0</v>
       </c>
       <c r="M325">
-        <v>141.3759460449219</v>
+        <v>140</v>
       </c>
     </row>
     <row r="326">
@@ -16291,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>150.5977020263672</v>
+        <v>154</v>
       </c>
     </row>
     <row r="327">
@@ -16339,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>155.7934265136719</v>
+        <v>154</v>
       </c>
     </row>
     <row r="328">
@@ -16387,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>146.0722808837891</v>
+        <v>146</v>
       </c>
     </row>
     <row r="329">
@@ -16435,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>156.2158966064453</v>
+        <v>154</v>
       </c>
     </row>
     <row r="330">
@@ -16488,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="M330">
-        <v>139.0366821289062</v>
+        <v>139</v>
       </c>
     </row>
     <row r="331">
@@ -16536,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>86.76974487304688</v>
+        <v>97</v>
       </c>
     </row>
     <row r="332">
@@ -16584,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>71.75608062744141</v>
+        <v>66</v>
       </c>
     </row>
     <row r="333">
@@ -16632,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>67.26329040527344</v>
+        <v>65</v>
       </c>
     </row>
     <row r="334">
@@ -16680,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>128.5769805908203</v>
+        <v>129</v>
       </c>
     </row>
     <row r="335">
@@ -16728,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>158.0064697265625</v>
+        <v>158</v>
       </c>
     </row>
     <row r="336">
@@ -16776,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>138.1166534423828</v>
+        <v>136</v>
       </c>
     </row>
     <row r="337">
@@ -16824,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>132.3607788085938</v>
+        <v>130</v>
       </c>
     </row>
     <row r="338">
@@ -16872,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <v>157.6595306396484</v>
+        <v>157</v>
       </c>
     </row>
     <row r="339">
@@ -16920,7 +16917,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>118.4059524536133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="340">
@@ -16968,7 +16965,7 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>97.03191375732422</v>
+        <v>96</v>
       </c>
     </row>
     <row r="341">
@@ -17016,7 +17013,7 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>105.2735977172852</v>
+        <v>105</v>
       </c>
     </row>
     <row r="342">
@@ -17064,7 +17061,7 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>75.93662261962891</v>
+        <v>76</v>
       </c>
     </row>
     <row r="343">
@@ -17112,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>70.51678466796875</v>
+        <v>70</v>
       </c>
     </row>
     <row r="344">
@@ -17160,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>127.4382400512695</v>
+        <v>128</v>
       </c>
     </row>
     <row r="345">
@@ -17208,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>99.64614105224609</v>
+        <v>98</v>
       </c>
     </row>
     <row r="346">
@@ -17261,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>77.54652404785156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="347">
@@ -17309,7 +17306,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>73.70225524902344</v>
+        <v>73</v>
       </c>
     </row>
     <row r="348">
@@ -17357,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>52.31827545166016</v>
+        <v>51</v>
       </c>
     </row>
     <row r="349">
@@ -17405,7 +17402,7 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>38.18038177490234</v>
+        <v>37</v>
       </c>
     </row>
     <row r="350">
@@ -17453,7 +17450,7 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>40.37243270874023</v>
+        <v>42</v>
       </c>
     </row>
     <row r="351">
@@ -17501,7 +17498,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>46.20420837402344</v>
+        <v>46</v>
       </c>
     </row>
     <row r="352">
@@ -17549,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="353">
@@ -17597,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="M353">
-        <v>55.46576309204102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="354">
@@ -17645,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>26.34663009643555</v>
+        <v>26</v>
       </c>
     </row>
     <row r="355">
@@ -17693,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>109.4014511108398</v>
+        <v>109</v>
       </c>
     </row>
     <row r="356">
@@ -17741,7 +17738,7 @@
         <v>0</v>
       </c>
       <c r="M356">
-        <v>120.6727752685547</v>
+        <v>119</v>
       </c>
     </row>
     <row r="357">
@@ -17789,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="M357">
-        <v>107.8828430175781</v>
+        <v>107</v>
       </c>
     </row>
     <row r="358">
@@ -17837,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="M358">
-        <v>104.7394714355469</v>
+        <v>104</v>
       </c>
     </row>
     <row r="359">
@@ -17885,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="M359">
-        <v>84.22880554199219</v>
+        <v>83</v>
       </c>
     </row>
     <row r="360">
@@ -17938,7 +17935,7 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>82.583984375</v>
+        <v>82</v>
       </c>
     </row>
     <row r="361">
@@ -17986,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>55.11747741699219</v>
+        <v>54</v>
       </c>
     </row>
     <row r="362">
@@ -18034,7 +18031,7 @@
         <v>0</v>
       </c>
       <c r="M362">
-        <v>43.19101333618164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="363">
@@ -18087,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>53.21872329711914</v>
+        <v>52</v>
       </c>
     </row>
     <row r="364">
@@ -18135,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="M364">
-        <v>107.0065383911133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="365">
@@ -18183,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="M365">
-        <v>30.16494178771973</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366">
@@ -18231,7 +18228,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>58.9964485168457</v>
+        <v>58</v>
       </c>
     </row>
     <row r="367">
@@ -18279,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>36.0821533203125</v>
+        <v>35</v>
       </c>
     </row>
     <row r="368">
@@ -18327,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>97.60020446777344</v>
+        <v>97</v>
       </c>
     </row>
     <row r="369">
@@ -18375,7 +18372,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>56.66028594970703</v>
+        <v>55</v>
       </c>
     </row>
     <row r="370">
@@ -18423,7 +18420,7 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>97.31072235107422</v>
+        <v>96</v>
       </c>
     </row>
     <row r="371">
@@ -18471,7 +18468,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>28.24661827087402</v>
+        <v>27</v>
       </c>
     </row>
     <row r="372">
@@ -18519,7 +18516,7 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0.2423975020647049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -18572,7 +18569,7 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>8.784486770629883</v>
+        <v>6</v>
       </c>
     </row>
     <row r="374">
@@ -18620,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="M374">
-        <v>33.14234924316406</v>
+        <v>31</v>
       </c>
     </row>
     <row r="375">
@@ -18668,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="M375">
-        <v>140.8683776855469</v>
+        <v>141</v>
       </c>
     </row>
     <row r="376">
@@ -18716,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>56.99454116821289</v>
+        <v>52</v>
       </c>
     </row>
     <row r="377">
@@ -18764,7 +18761,7 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>114.0473403930664</v>
+        <v>115</v>
       </c>
     </row>
     <row r="378">
@@ -18812,7 +18809,7 @@
         <v>1</v>
       </c>
       <c r="M378">
-        <v>133.0638580322266</v>
+        <v>131</v>
       </c>
     </row>
     <row r="379">
@@ -18860,7 +18857,7 @@
         <v>1</v>
       </c>
       <c r="M379">
-        <v>174.4812316894531</v>
+        <v>171</v>
       </c>
     </row>
     <row r="380">
@@ -18908,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>37.00279235839844</v>
+        <v>34</v>
       </c>
     </row>
     <row r="381">
@@ -18956,7 +18953,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>121.9913330078125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="382">
@@ -19004,7 +19001,7 @@
         <v>1</v>
       </c>
       <c r="M382">
-        <v>139.1926116943359</v>
+        <v>138</v>
       </c>
     </row>
     <row r="383">
@@ -19052,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>62.20431518554688</v>
+        <v>58</v>
       </c>
     </row>
     <row r="384">
@@ -19105,7 +19102,7 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>124.7372741699219</v>
+        <v>123</v>
       </c>
     </row>
     <row r="385">
@@ -19153,7 +19150,7 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>106.728630065918</v>
+        <v>104</v>
       </c>
     </row>
     <row r="386">
@@ -19206,7 +19203,7 @@
         <v>0</v>
       </c>
       <c r="M386">
-        <v>119.4982376098633</v>
+        <v>117</v>
       </c>
     </row>
     <row r="387">
@@ -19254,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="M387">
-        <v>117.4053573608398</v>
+        <v>117</v>
       </c>
     </row>
     <row r="388">
@@ -19307,7 +19304,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>-2.084837436676025</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="389">
@@ -19355,7 +19352,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>129.0143432617188</v>
+        <v>120</v>
       </c>
     </row>
     <row r="390">
@@ -19403,7 +19400,7 @@
         <v>0</v>
       </c>
       <c r="M390">
-        <v>52.9160041809082</v>
+        <v>51</v>
       </c>
     </row>
     <row r="391">
@@ -19451,7 +19448,7 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>57.91303634643555</v>
+        <v>58</v>
       </c>
     </row>
     <row r="392">
@@ -19499,7 +19496,7 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>82.44131469726563</v>
+        <v>79</v>
       </c>
     </row>
     <row r="393">
@@ -19547,7 +19544,7 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>11.86764049530029</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394">
@@ -19595,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>58.86827087402344</v>
+        <v>58</v>
       </c>
     </row>
     <row r="395">
@@ -19643,7 +19640,7 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <v>60.8813362121582</v>
+        <v>61</v>
       </c>
     </row>
     <row r="396">
@@ -19691,7 +19688,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>22.36924743652344</v>
+        <v>16</v>
       </c>
     </row>
     <row r="397">
@@ -19739,7 +19736,7 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>56.29181289672852</v>
+        <v>55</v>
       </c>
     </row>
     <row r="398">
@@ -19787,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>48.05137634277344</v>
+        <v>47</v>
       </c>
     </row>
     <row r="399">
@@ -19835,7 +19832,7 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>55.02251434326172</v>
+        <v>53</v>
       </c>
     </row>
     <row r="400">
@@ -19883,7 +19880,7 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>52.07928848266602</v>
+        <v>51</v>
       </c>
     </row>
     <row r="401">
@@ -19931,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>26.59425735473633</v>
+        <v>24</v>
       </c>
     </row>
     <row r="402">
@@ -19979,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>30.58783721923828</v>
+        <v>29</v>
       </c>
     </row>
     <row r="403">
@@ -20032,7 +20029,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>125.7182159423828</v>
+        <v>121</v>
       </c>
     </row>
     <row r="404">
@@ -20080,7 +20077,7 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>47.75834655761719</v>
+        <v>47</v>
       </c>
     </row>
     <row r="405">
@@ -20128,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <v>6.041264533996582</v>
+        <v>6</v>
       </c>
     </row>
     <row r="406">
@@ -20176,7 +20173,7 @@
         <v>0</v>
       </c>
       <c r="M406">
-        <v>-2.969394683837891</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="407">
@@ -20224,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>-2.545013427734375</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="408">
@@ -20277,7 +20274,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>5.568661689758301</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409">
@@ -20325,7 +20322,7 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <v>106.4114227294922</v>
+        <v>102</v>
       </c>
     </row>
     <row r="410">
@@ -20373,7 +20370,7 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>41.10797119140625</v>
+        <v>40</v>
       </c>
     </row>
     <row r="411">
@@ -20421,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>3.651024580001831</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412">
@@ -20469,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>17.3182430267334</v>
+        <v>17</v>
       </c>
     </row>
     <row r="413">
@@ -20517,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>36.80226898193359</v>
+        <v>35</v>
       </c>
     </row>
     <row r="414">
@@ -20565,7 +20562,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>42.82447814941406</v>
+        <v>38</v>
       </c>
     </row>
     <row r="415">
@@ -20613,7 +20610,7 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>3.909368991851807</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -20661,7 +20658,7 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <v>43.11914443969727</v>
+        <v>39</v>
       </c>
     </row>
     <row r="417">
@@ -20709,7 +20706,7 @@
         <v>0</v>
       </c>
       <c r="M417">
-        <v>12.1028995513916</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418">
@@ -20757,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <v>91.97276306152344</v>
+        <v>92</v>
       </c>
     </row>
     <row r="419">
@@ -20810,7 +20807,7 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>44.30155181884766</v>
+        <v>42</v>
       </c>
     </row>
     <row r="420">
@@ -20858,7 +20855,7 @@
         <v>0</v>
       </c>
       <c r="M420">
-        <v>8.567996978759766</v>
+        <v>9</v>
       </c>
     </row>
     <row r="421">
@@ -20906,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>14.7865104675293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="422">
@@ -20954,7 +20951,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>22.34632110595703</v>
+        <v>27</v>
       </c>
     </row>
     <row r="423">
@@ -21002,7 +20999,7 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.293800950050354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -21050,7 +21047,7 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>13.40305995941162</v>
+        <v>14</v>
       </c>
     </row>
     <row r="425">
@@ -21098,7 +21095,7 @@
         <v>0</v>
       </c>
       <c r="M425">
-        <v>137.3049621582031</v>
+        <v>137</v>
       </c>
     </row>
     <row r="426">
@@ -21146,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>74.23528289794922</v>
+        <v>72</v>
       </c>
     </row>
     <row r="427">
@@ -21194,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="M427">
-        <v>29.83675575256348</v>
+        <v>36</v>
       </c>
     </row>
     <row r="428">
@@ -21242,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="M428">
-        <v>141.1912994384766</v>
+        <v>143</v>
       </c>
     </row>
     <row r="429">
@@ -21290,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="M429">
-        <v>102.4393692016602</v>
+        <v>99</v>
       </c>
     </row>
     <row r="430">
@@ -21343,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <v>154.5353088378906</v>
+        <v>154</v>
       </c>
     </row>
     <row r="431">
@@ -21391,7 +21388,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>131.0513153076172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="432">
@@ -21439,7 +21436,7 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>89.10134887695313</v>
+        <v>87</v>
       </c>
     </row>
     <row r="433">
@@ -21492,7 +21489,7 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>98.10520172119141</v>
+        <v>98</v>
       </c>
     </row>
     <row r="434">
@@ -21540,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>142.0813293457031</v>
+        <v>139</v>
       </c>
     </row>
     <row r="435">
@@ -21588,7 +21585,7 @@
         <v>0</v>
       </c>
       <c r="M435">
-        <v>49.20726776123047</v>
+        <v>45</v>
       </c>
     </row>
     <row r="436">
@@ -21636,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="M436">
-        <v>34.41014862060547</v>
+        <v>34</v>
       </c>
     </row>
     <row r="437">
@@ -21684,7 +21681,7 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>49.19236755371094</v>
+        <v>45</v>
       </c>
     </row>
     <row r="438">
@@ -21732,7 +21729,7 @@
         <v>0</v>
       </c>
       <c r="M438">
-        <v>34.21982955932617</v>
+        <v>31</v>
       </c>
     </row>
     <row r="439">
@@ -21785,7 +21782,7 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <v>59.79790878295898</v>
+        <v>57</v>
       </c>
     </row>
     <row r="440">
@@ -21833,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <v>35.61486053466797</v>
+        <v>35</v>
       </c>
     </row>
     <row r="441">
@@ -21881,7 +21878,7 @@
         <v>0</v>
       </c>
       <c r="M441">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="442">
@@ -21929,7 +21926,7 @@
         <v>0</v>
       </c>
       <c r="M442">
-        <v>55.03719329833984</v>
+        <v>54</v>
       </c>
     </row>
     <row r="443">
@@ -21977,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="M443">
-        <v>38.62853622436523</v>
+        <v>36</v>
       </c>
     </row>
     <row r="444">
@@ -22025,7 +22022,7 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>45.16048049926758</v>
+        <v>43</v>
       </c>
     </row>
     <row r="445">
@@ -22073,7 +22070,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>71.32280731201172</v>
+        <v>71</v>
       </c>
     </row>
     <row r="446">
@@ -22126,7 +22123,7 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>48.01790237426758</v>
+        <v>46</v>
       </c>
     </row>
     <row r="447">
@@ -22174,7 +22171,7 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>39.33330917358398</v>
+        <v>39</v>
       </c>
     </row>
     <row r="448">
@@ -22222,7 +22219,7 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>63.91525650024414</v>
+        <v>59</v>
       </c>
     </row>
     <row r="449">
@@ -22270,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>64.77843475341797</v>
+        <v>63</v>
       </c>
     </row>
     <row r="450">
@@ -22318,7 +22315,7 @@
         <v>0</v>
       </c>
       <c r="M450">
-        <v>53.91994857788086</v>
+        <v>55</v>
       </c>
     </row>
     <row r="451">
@@ -22371,7 +22368,7 @@
         <v>0</v>
       </c>
       <c r="M451">
-        <v>41.63291931152344</v>
+        <v>42</v>
       </c>
     </row>
     <row r="452">
@@ -22419,7 +22416,7 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>43.5791015625</v>
+        <v>41</v>
       </c>
     </row>
     <row r="453">
@@ -22467,7 +22464,7 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <v>47.08707809448242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="454">
@@ -22515,7 +22512,7 @@
         <v>0</v>
       </c>
       <c r="M454">
-        <v>95.03253936767578</v>
+        <v>95</v>
       </c>
     </row>
     <row r="455">
@@ -22568,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>89.76946258544922</v>
+        <v>87</v>
       </c>
     </row>
     <row r="456">
@@ -22621,7 +22618,7 @@
         <v>0</v>
       </c>
       <c r="M456">
-        <v>49.03091812133789</v>
+        <v>49</v>
       </c>
     </row>
     <row r="457">
@@ -22669,7 +22666,7 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>37.4810791015625</v>
+        <v>38</v>
       </c>
     </row>
     <row r="458">
@@ -22722,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="M458">
-        <v>39.77590179443359</v>
+        <v>38</v>
       </c>
     </row>
     <row r="459">
@@ -22770,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="M459">
-        <v>34.66574096679688</v>
+        <v>21</v>
       </c>
     </row>
     <row r="460">
@@ -22818,7 +22815,7 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>57.04479217529297</v>
+        <v>56</v>
       </c>
     </row>
     <row r="461">
@@ -22866,7 +22863,7 @@
         <v>0</v>
       </c>
       <c r="M461">
-        <v>38.92474746704102</v>
+        <v>38</v>
       </c>
     </row>
     <row r="462">
@@ -22914,7 +22911,7 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <v>119.9183731079102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="463">
@@ -22962,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="M463">
-        <v>25.76954078674316</v>
+        <v>25</v>
       </c>
     </row>
     <row r="464">
@@ -23010,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="M464">
-        <v>33.77499389648438</v>
+        <v>34</v>
       </c>
     </row>
     <row r="465">
@@ -23058,7 +23055,7 @@
         <v>0</v>
       </c>
       <c r="M465">
-        <v>47.18107223510742</v>
+        <v>46</v>
       </c>
     </row>
     <row r="466">
@@ -23106,7 +23103,7 @@
         <v>0</v>
       </c>
       <c r="M466">
-        <v>44.88295364379883</v>
+        <v>43</v>
       </c>
     </row>
     <row r="467">
@@ -23154,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="M467">
-        <v>48.61354064941406</v>
+        <v>47</v>
       </c>
     </row>
     <row r="468">
@@ -23202,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <v>71.28842926025391</v>
+        <v>70</v>
       </c>
     </row>
     <row r="469">
@@ -23250,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="M469">
-        <v>62.6859130859375</v>
+        <v>61</v>
       </c>
     </row>
     <row r="470">
@@ -23298,7 +23295,7 @@
         <v>0</v>
       </c>
       <c r="M470">
-        <v>56.8563117980957</v>
+        <v>56</v>
       </c>
     </row>
     <row r="471">
@@ -23346,7 +23343,7 @@
         <v>0</v>
       </c>
       <c r="M471">
-        <v>120.2219009399414</v>
+        <v>115</v>
       </c>
     </row>
     <row r="472">
@@ -23394,7 +23391,7 @@
         <v>0</v>
       </c>
       <c r="M472">
-        <v>44.29458618164062</v>
+        <v>43</v>
       </c>
     </row>
     <row r="473">
@@ -23447,7 +23444,7 @@
         <v>0</v>
       </c>
       <c r="M473">
-        <v>35.00341796875</v>
+        <v>34</v>
       </c>
     </row>
     <row r="474">
@@ -23495,7 +23492,7 @@
         <v>0</v>
       </c>
       <c r="M474">
-        <v>63.70477676391602</v>
+        <v>61</v>
       </c>
     </row>
     <row r="475">
@@ -23543,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="M475">
-        <v>149.8099060058594</v>
+        <v>146</v>
       </c>
     </row>
     <row r="476">
@@ -23596,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="M476">
-        <v>49.89740371704102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="477">
@@ -23649,7 +23646,7 @@
         <v>0</v>
       </c>
       <c r="M477">
-        <v>38.82945251464844</v>
+        <v>38</v>
       </c>
     </row>
     <row r="478">
@@ -23697,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>53.12885284423828</v>
+        <v>53</v>
       </c>
     </row>
     <row r="479">
@@ -23745,7 +23742,7 @@
         <v>0</v>
       </c>
       <c r="M479">
-        <v>72.03701019287109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="480">
@@ -23793,7 +23790,7 @@
         <v>0</v>
       </c>
       <c r="M480">
-        <v>95.41361236572266</v>
+        <v>94</v>
       </c>
     </row>
     <row r="481">
@@ -23846,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>97.00070953369141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="482">
@@ -23894,7 +23891,7 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>58.22970199584961</v>
+        <v>57</v>
       </c>
     </row>
     <row r="483">
@@ -23942,7 +23939,7 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>121.3018569946289</v>
+        <v>119</v>
       </c>
     </row>
     <row r="484">
@@ -23990,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>107.2162628173828</v>
+        <v>104</v>
       </c>
     </row>
     <row r="485">
@@ -24043,7 +24040,7 @@
         <v>0</v>
       </c>
       <c r="M485">
-        <v>60.57341003417969</v>
+        <v>58</v>
       </c>
     </row>
     <row r="486">
@@ -24091,7 +24088,7 @@
         <v>0</v>
       </c>
       <c r="M486">
-        <v>41.92536163330078</v>
+        <v>41</v>
       </c>
     </row>
     <row r="487">
@@ -24139,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="M487">
-        <v>62.18639755249023</v>
+        <v>62</v>
       </c>
     </row>
     <row r="488">
@@ -24187,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>81.15113830566406</v>
+        <v>81</v>
       </c>
     </row>
     <row r="489">
@@ -24235,7 +24232,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>89.46949768066406</v>
+        <v>88</v>
       </c>
     </row>
     <row r="490">
@@ -24288,7 +24285,7 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>113.0767211914062</v>
+        <v>113</v>
       </c>
     </row>
     <row r="491">
@@ -24341,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <v>110.9144134521484</v>
+        <v>110</v>
       </c>
     </row>
     <row r="492">
@@ -24394,7 +24391,7 @@
         <v>0</v>
       </c>
       <c r="M492">
-        <v>157.0053558349609</v>
+        <v>154</v>
       </c>
     </row>
     <row r="493">
@@ -24442,7 +24439,7 @@
         <v>0</v>
       </c>
       <c r="M493">
-        <v>38.96836471557617</v>
+        <v>38</v>
       </c>
     </row>
     <row r="494">
@@ -24490,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="M494">
-        <v>70.42266082763672</v>
+        <v>63</v>
       </c>
     </row>
     <row r="495">
@@ -24538,7 +24535,7 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>69.26776885986328</v>
+        <v>67</v>
       </c>
     </row>
     <row r="496">
@@ -24586,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>64.71636199951172</v>
+        <v>62</v>
       </c>
     </row>
     <row r="497">
@@ -24639,7 +24636,7 @@
         <v>0</v>
       </c>
       <c r="M497">
-        <v>92.45230865478516</v>
+        <v>87</v>
       </c>
     </row>
     <row r="498">
@@ -24687,7 +24684,7 @@
         <v>0</v>
       </c>
       <c r="M498">
-        <v>96.81990051269531</v>
+        <v>93</v>
       </c>
     </row>
     <row r="499">
@@ -24735,7 +24732,7 @@
         <v>0</v>
       </c>
       <c r="M499">
-        <v>107.8699951171875</v>
+        <v>106</v>
       </c>
     </row>
     <row r="500">
@@ -24783,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="M500">
-        <v>101.8742828369141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="501">
@@ -24836,7 +24833,7 @@
         <v>0</v>
       </c>
       <c r="M501">
-        <v>98.74671936035156</v>
+        <v>95</v>
       </c>
     </row>
     <row r="502">
@@ -24884,7 +24881,7 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <v>74.14933013916016</v>
+        <v>73</v>
       </c>
     </row>
     <row r="503">
@@ -24932,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="M503">
-        <v>22.7651424407959</v>
+        <v>20</v>
       </c>
     </row>
     <row r="504">
@@ -24980,7 +24977,7 @@
         <v>0</v>
       </c>
       <c r="M504">
-        <v>50.45774078369141</v>
+        <v>49</v>
       </c>
     </row>
     <row r="505">
@@ -25028,7 +25025,7 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>62.1413459777832</v>
+        <v>62</v>
       </c>
     </row>
     <row r="506">
@@ -25076,7 +25073,7 @@
         <v>0</v>
       </c>
       <c r="M506">
-        <v>68.23520660400391</v>
+        <v>68</v>
       </c>
     </row>
     <row r="507">
@@ -25124,7 +25121,7 @@
         <v>0</v>
       </c>
       <c r="M507">
-        <v>74.79540252685547</v>
+        <v>73</v>
       </c>
     </row>
     <row r="508">
@@ -25172,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <v>113.9874114990234</v>
+        <v>113</v>
       </c>
     </row>
     <row r="509">
@@ -25220,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="M509">
-        <v>146.8971710205078</v>
+        <v>147</v>
       </c>
     </row>
     <row r="510">
@@ -25268,7 +25265,7 @@
         <v>0</v>
       </c>
       <c r="M510">
-        <v>126.3025665283203</v>
+        <v>124</v>
       </c>
     </row>
     <row r="511">
@@ -25316,7 +25313,7 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>64.22478485107422</v>
+        <v>63</v>
       </c>
     </row>
     <row r="512">
@@ -25364,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <v>75.61857604980469</v>
+        <v>75</v>
       </c>
     </row>
     <row r="513">
@@ -25417,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>110.4120407104492</v>
+        <v>112</v>
       </c>
     </row>
     <row r="514">
@@ -25465,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>137.3395843505859</v>
+        <v>124</v>
       </c>
     </row>
     <row r="515">
@@ -25513,7 +25510,7 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>138.7564849853516</v>
+        <v>140</v>
       </c>
     </row>
     <row r="516">
@@ -25566,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <v>137.1209869384766</v>
+        <v>137</v>
       </c>
     </row>
     <row r="517">
@@ -25614,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="M517">
-        <v>112.1665878295898</v>
+        <v>111</v>
       </c>
     </row>
     <row r="518">
@@ -25667,7 +25664,7 @@
         <v>0</v>
       </c>
       <c r="M518">
-        <v>131.2962493896484</v>
+        <v>131</v>
       </c>
     </row>
     <row r="519">
@@ -25720,7 +25717,7 @@
         <v>0</v>
       </c>
       <c r="M519">
-        <v>53.81192016601562</v>
+        <v>52</v>
       </c>
     </row>
     <row r="520">
@@ -25768,7 +25765,7 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>102.2836990356445</v>
+        <v>103</v>
       </c>
     </row>
     <row r="521">
@@ -25816,7 +25813,7 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>107.3349914550781</v>
+        <v>107</v>
       </c>
     </row>
     <row r="522">
@@ -25864,7 +25861,7 @@
         <v>0</v>
       </c>
       <c r="M522">
-        <v>46.93848037719727</v>
+        <v>46</v>
       </c>
     </row>
     <row r="523">
@@ -25917,7 +25914,7 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <v>48.04375457763672</v>
+        <v>48</v>
       </c>
     </row>
     <row r="524">
@@ -25965,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <v>72.70529174804688</v>
+        <v>73</v>
       </c>
     </row>
     <row r="525">
@@ -26013,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>82.60546112060547</v>
+        <v>82</v>
       </c>
     </row>
     <row r="526">
@@ -26061,7 +26058,7 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <v>46.61874008178711</v>
+        <v>47</v>
       </c>
     </row>
     <row r="527">
@@ -26109,7 +26106,7 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <v>49.54416656494141</v>
+        <v>51</v>
       </c>
     </row>
     <row r="528">
@@ -26157,7 +26154,7 @@
         <v>0</v>
       </c>
       <c r="M528">
-        <v>25.36085319519043</v>
+        <v>26</v>
       </c>
     </row>
     <row r="529">
@@ -26205,7 +26202,7 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <v>50.37247467041016</v>
+        <v>53</v>
       </c>
     </row>
     <row r="530">
@@ -26253,7 +26250,7 @@
         <v>0</v>
       </c>
       <c r="M530">
-        <v>47.34724044799805</v>
+        <v>45</v>
       </c>
     </row>
     <row r="531">
@@ -26301,7 +26298,7 @@
         <v>0</v>
       </c>
       <c r="M531">
-        <v>26.1956787109375</v>
+        <v>29</v>
       </c>
     </row>
     <row r="532">
@@ -26349,7 +26346,7 @@
         <v>0</v>
       </c>
       <c r="M532">
-        <v>94.07831573486328</v>
+        <v>93</v>
       </c>
     </row>
     <row r="533">
@@ -26397,7 +26394,7 @@
         <v>0</v>
       </c>
       <c r="M533">
-        <v>66.15686798095703</v>
+        <v>66</v>
       </c>
     </row>
     <row r="534">
@@ -26450,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="M534">
-        <v>79.70260620117188</v>
+        <v>78</v>
       </c>
     </row>
     <row r="535">
@@ -26498,7 +26495,7 @@
         <v>0</v>
       </c>
       <c r="M535">
-        <v>26.06021308898926</v>
+        <v>25</v>
       </c>
     </row>
     <row r="536">
@@ -26551,7 +26548,7 @@
         <v>0</v>
       </c>
       <c r="M536">
-        <v>51.24801254272461</v>
+        <v>51</v>
       </c>
     </row>
     <row r="537">
@@ -26599,7 +26596,7 @@
         <v>0</v>
       </c>
       <c r="M537">
-        <v>75.22748565673828</v>
+        <v>73</v>
       </c>
     </row>
     <row r="538">
@@ -26647,7 +26644,7 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>70.90431213378906</v>
+        <v>70</v>
       </c>
     </row>
     <row r="539">
@@ -26700,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>1.803286075592041</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540">
@@ -26748,7 +26745,7 @@
         <v>0</v>
       </c>
       <c r="M540">
-        <v>140.902099609375</v>
+        <v>141</v>
       </c>
     </row>
     <row r="541">
@@ -26796,7 +26793,7 @@
         <v>0</v>
       </c>
       <c r="M541">
-        <v>21.89444160461426</v>
+        <v>19</v>
       </c>
     </row>
     <row r="542">
@@ -26844,7 +26841,7 @@
         <v>0</v>
       </c>
       <c r="M542">
-        <v>33.08113861083984</v>
+        <v>33</v>
       </c>
     </row>
     <row r="543">
@@ -26892,7 +26889,7 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>-1.3625248670578</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
@@ -26940,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>132.1630096435547</v>
+        <v>130</v>
       </c>
     </row>
     <row r="545">
@@ -26988,7 +26985,7 @@
         <v>1</v>
       </c>
       <c r="M545">
-        <v>127.906852722168</v>
+        <v>121</v>
       </c>
     </row>
     <row r="546">
@@ -27036,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>151.3524169921875</v>
+        <v>154</v>
       </c>
     </row>
     <row r="547">
@@ -27084,7 +27081,7 @@
         <v>0</v>
       </c>
       <c r="M547">
-        <v>81.97811126708984</v>
+        <v>80</v>
       </c>
     </row>
     <row r="548">
@@ -27132,7 +27129,7 @@
         <v>0</v>
       </c>
       <c r="M548">
-        <v>79.63294219970703</v>
+        <v>76</v>
       </c>
     </row>
     <row r="549">
@@ -27185,7 +27182,7 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <v>62.44159698486328</v>
+        <v>62</v>
       </c>
     </row>
     <row r="550">
@@ -27233,7 +27230,7 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>114.3215713500977</v>
+        <v>113</v>
       </c>
     </row>
     <row r="551">
@@ -27281,7 +27278,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>65.52071380615234</v>
+        <v>63</v>
       </c>
     </row>
     <row r="552">
@@ -27329,7 +27326,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>84.12677764892578</v>
+        <v>87</v>
       </c>
     </row>
     <row r="553">
@@ -27382,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>46.07939910888672</v>
+        <v>45</v>
       </c>
     </row>
     <row r="554">
@@ -27430,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>63.89760971069336</v>
+        <v>63</v>
       </c>
     </row>
     <row r="555">
@@ -27478,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <v>58.54224014282227</v>
+        <v>57</v>
       </c>
     </row>
     <row r="556">
@@ -27526,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <v>43.73412704467773</v>
+        <v>42</v>
       </c>
     </row>
     <row r="557">
@@ -27579,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>84.56601715087891</v>
+        <v>84</v>
       </c>
     </row>
     <row r="558">
@@ -27632,7 +27629,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>41.28287887573242</v>
+        <v>39</v>
       </c>
     </row>
     <row r="559">
@@ -27680,7 +27677,7 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>44.80647277832031</v>
+        <v>43</v>
       </c>
     </row>
     <row r="560">
@@ -27733,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>33.07574462890625</v>
+        <v>33</v>
       </c>
     </row>
     <row r="561">
@@ -27781,7 +27778,7 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>54.65832901000977</v>
+        <v>54</v>
       </c>
     </row>
     <row r="562">
@@ -27829,7 +27826,7 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>63.45758438110352</v>
+        <v>63</v>
       </c>
     </row>
     <row r="563">
@@ -27877,7 +27874,7 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>90.72233581542969</v>
+        <v>88</v>
       </c>
     </row>
     <row r="564">
@@ -27925,7 +27922,7 @@
         <v>0</v>
       </c>
       <c r="M564">
-        <v>33.94769287109375</v>
+        <v>32</v>
       </c>
     </row>
     <row r="565">
@@ -27973,7 +27970,7 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>169.3883819580078</v>
+        <v>163</v>
       </c>
     </row>
     <row r="566">
@@ -28021,7 +28018,7 @@
         <v>0</v>
       </c>
       <c r="M566">
-        <v>55.41434097290039</v>
+        <v>54</v>
       </c>
     </row>
     <row r="567">
@@ -28074,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>43.96298599243164</v>
+        <v>43</v>
       </c>
     </row>
     <row r="568">
@@ -28122,7 +28119,7 @@
         <v>0</v>
       </c>
       <c r="M568">
-        <v>33.4970817565918</v>
+        <v>32</v>
       </c>
     </row>
     <row r="569">
@@ -28170,7 +28167,7 @@
         <v>0</v>
       </c>
       <c r="M569">
-        <v>39.62826156616211</v>
+        <v>39</v>
       </c>
     </row>
     <row r="570">
@@ -28218,7 +28215,7 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>4.667168140411377</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571">
@@ -28266,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>71.33353424072266</v>
+        <v>70</v>
       </c>
     </row>
     <row r="572">
@@ -28314,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>104.315071105957</v>
+        <v>104</v>
       </c>
     </row>
     <row r="573">
@@ -28362,7 +28359,7 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>-0.7015532255172729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -28415,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="M574">
-        <v>134.0232543945312</v>
+        <v>134</v>
       </c>
     </row>
     <row r="575">
@@ -28463,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="M575">
-        <v>84.57188415527344</v>
+        <v>82</v>
       </c>
     </row>
     <row r="576">
@@ -28511,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="M576">
-        <v>128.6394653320312</v>
+        <v>129</v>
       </c>
     </row>
     <row r="577">
@@ -28559,7 +28556,7 @@
         <v>0</v>
       </c>
       <c r="M577">
-        <v>69.47113800048828</v>
+        <v>69</v>
       </c>
     </row>
     <row r="578">
@@ -28607,7 +28604,7 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <v>105.8184127807617</v>
+        <v>108</v>
       </c>
     </row>
     <row r="579">
@@ -28655,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>32.10585021972656</v>
+        <v>31</v>
       </c>
     </row>
     <row r="580">
@@ -28708,7 +28705,7 @@
         <v>0</v>
       </c>
       <c r="M580">
-        <v>70.00316619873047</v>
+        <v>69</v>
       </c>
     </row>
     <row r="581">
@@ -28756,7 +28753,7 @@
         <v>0</v>
       </c>
       <c r="M581">
-        <v>93.22554016113281</v>
+        <v>91</v>
       </c>
     </row>
     <row r="582">
@@ -28804,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>119.3051223754883</v>
+        <v>118</v>
       </c>
     </row>
     <row r="583">
@@ -28852,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>96.46756744384766</v>
+        <v>97</v>
       </c>
     </row>
     <row r="584">
@@ -28900,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="M584">
-        <v>81.00679016113281</v>
+        <v>84</v>
       </c>
     </row>
     <row r="585">
@@ -28948,7 +28945,7 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <v>15.37377738952637</v>
+        <v>13</v>
       </c>
     </row>
     <row r="586">
@@ -28996,7 +28993,7 @@
         <v>0</v>
       </c>
       <c r="M586">
-        <v>66.53021240234375</v>
+        <v>69</v>
       </c>
     </row>
     <row r="587">
@@ -29044,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>86.62197113037109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="588">
@@ -29092,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="M588">
-        <v>53.21603393554688</v>
+        <v>53</v>
       </c>
     </row>
     <row r="589">
@@ -29140,7 +29137,7 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <v>47.56383895874023</v>
+        <v>44</v>
       </c>
     </row>
     <row r="590">
@@ -29188,7 +29185,7 @@
         <v>0</v>
       </c>
       <c r="M590">
-        <v>115.6880187988281</v>
+        <v>115</v>
       </c>
     </row>
     <row r="591">
@@ -29236,7 +29233,7 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <v>115.5980758666992</v>
+        <v>116</v>
       </c>
     </row>
     <row r="592">
@@ -29289,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <v>92.77543640136719</v>
+        <v>93</v>
       </c>
     </row>
     <row r="593">
@@ -29342,7 +29339,7 @@
         <v>0</v>
       </c>
       <c r="M593">
-        <v>80.22856140136719</v>
+        <v>79</v>
       </c>
     </row>
     <row r="594">
@@ -29395,7 +29392,7 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <v>87.26647186279297</v>
+        <v>87</v>
       </c>
     </row>
     <row r="595">
@@ -29448,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="M595">
-        <v>96.25895690917969</v>
+        <v>95</v>
       </c>
     </row>
     <row r="596">
@@ -29496,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="M596">
-        <v>80.43769836425781</v>
+        <v>80</v>
       </c>
     </row>
     <row r="597">
@@ -29544,7 +29541,7 @@
         <v>0</v>
       </c>
       <c r="M597">
-        <v>52.91277313232422</v>
+        <v>43</v>
       </c>
     </row>
     <row r="598">
@@ -29592,7 +29589,7 @@
         <v>0</v>
       </c>
       <c r="M598">
-        <v>126.9769058227539</v>
+        <v>126</v>
       </c>
     </row>
     <row r="599">
@@ -29640,7 +29637,7 @@
         <v>0</v>
       </c>
       <c r="M599">
-        <v>142.0567626953125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="600">
@@ -29688,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="M600">
-        <v>111.1442031860352</v>
+        <v>111</v>
       </c>
     </row>
     <row r="601">
@@ -29736,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="M601">
-        <v>22.96450042724609</v>
+        <v>20</v>
       </c>
     </row>
     <row r="602">
@@ -29789,7 +29786,7 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>176.7525939941406</v>
+        <v>174</v>
       </c>
     </row>
     <row r="603">
@@ -29837,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="M603">
-        <v>141.5921936035156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="604">
@@ -29890,7 +29887,7 @@
         <v>0</v>
       </c>
       <c r="M604">
-        <v>34.54816055297852</v>
+        <v>34</v>
       </c>
     </row>
     <row r="605">
@@ -29943,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="M605">
-        <v>128.7052001953125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="606">
@@ -29991,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="M606">
-        <v>172.9951171875</v>
+        <v>168</v>
       </c>
     </row>
     <row r="607">
@@ -30039,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="M607">
-        <v>57.03850936889648</v>
+        <v>56</v>
       </c>
     </row>
     <row r="608">
@@ -30087,7 +30084,7 @@
         <v>0</v>
       </c>
       <c r="M608">
-        <v>88.92169189453125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="609">
@@ -30135,7 +30132,7 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>85.08536529541016</v>
+        <v>84</v>
       </c>
     </row>
     <row r="610">
@@ -30183,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="M610">
-        <v>45.3846435546875</v>
+        <v>44</v>
       </c>
     </row>
     <row r="611">
@@ -30231,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <v>38.50094604492188</v>
+        <v>35</v>
       </c>
     </row>
     <row r="612">
@@ -30279,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <v>33.54464340209961</v>
+        <v>34</v>
       </c>
     </row>
     <row r="613">
@@ -30327,7 +30324,7 @@
         <v>0</v>
       </c>
       <c r="M613">
-        <v>51.82478332519531</v>
+        <v>50</v>
       </c>
     </row>
     <row r="614">
@@ -30375,7 +30372,7 @@
         <v>0</v>
       </c>
       <c r="M614">
-        <v>36.84951019287109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="615">
@@ -30423,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="M615">
-        <v>71.00096893310547</v>
+        <v>67</v>
       </c>
     </row>
     <row r="616">
@@ -30471,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="M616">
-        <v>73.75325012207031</v>
+        <v>73</v>
       </c>
     </row>
     <row r="617">
@@ -30519,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="M617">
-        <v>98.15192413330078</v>
+        <v>98</v>
       </c>
     </row>
     <row r="618">
@@ -30567,7 +30564,7 @@
         <v>0</v>
       </c>
       <c r="M618">
-        <v>148.7442169189453</v>
+        <v>147</v>
       </c>
     </row>
     <row r="619">
@@ -30615,7 +30612,7 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <v>70.70466613769531</v>
+        <v>70</v>
       </c>
     </row>
     <row r="620">
@@ -30663,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>22.01872253417969</v>
+        <v>21</v>
       </c>
     </row>
     <row r="621">
@@ -30711,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>49.14431381225586</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
